--- a/Database Design.xlsx
+++ b/Database Design.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jianmingyong\Documents\GitHub\TheDialgaTeam\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59207074-BE6E-4434-A8D6-7BD7157F582D}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34F2BB8A-3023-4578-A8BC-2B7B5352F017}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9096" xr2:uid="{FFA57F3B-4B8E-4E2A-878C-E42987234F71}"/>
   </bookViews>
@@ -178,12 +178,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -198,8 +204,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -519,8 +531,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDA5944E-D60E-4225-AA9E-B34A789D881A}">
   <dimension ref="A1:K46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -536,28 +548,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="D1" s="1" t="s">
+      <c r="B1" s="4"/>
+      <c r="D1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="1"/>
-      <c r="G1" s="1" t="s">
+      <c r="E1" s="5"/>
+      <c r="G1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="1"/>
-      <c r="J1" s="1" t="s">
+      <c r="H1" s="5"/>
+      <c r="J1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="K1" s="1"/>
+      <c r="K1" s="5"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D2" t="s">
@@ -580,9 +592,10 @@
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="B3" s="1"/>
       <c r="D3" t="s">
         <v>5</v>
       </c>
@@ -594,9 +607,10 @@
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="B4" s="1"/>
       <c r="D4" t="s">
         <v>6</v>
       </c>
@@ -611,43 +625,48 @@
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="A5" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="B5" s="1"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B7" t="s">
-        <v>8</v>
-      </c>
+      <c r="B7" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="A9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G9" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="H9" t="s">
+      <c r="H9" s="2" t="s">
         <v>19</v>
       </c>
       <c r="J9" t="s">
@@ -658,44 +677,44 @@
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+      <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="2" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+      <c r="A11" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="3" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="1"/>
-      <c r="D13" s="1" t="s">
+      <c r="B13" s="5"/>
+      <c r="D13" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E13" s="1"/>
-      <c r="G13" s="1" t="s">
+      <c r="E13" s="5"/>
+      <c r="G13" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H13" s="1"/>
-      <c r="J13" s="1" t="s">
+      <c r="H13" s="5"/>
+      <c r="J13" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="K13" s="1"/>
+      <c r="K13" s="5"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
@@ -806,34 +825,34 @@
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
+      <c r="A21" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="2" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
+      <c r="A22" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="2" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
+      <c r="A23" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="2" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
+      <c r="A24" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -846,18 +865,18 @@
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A27" s="1" t="s">
+      <c r="A27" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B27" s="1"/>
-      <c r="D27" s="1" t="s">
+      <c r="B27" s="5"/>
+      <c r="D27" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="E27" s="1"/>
-      <c r="G27" s="1" t="s">
+      <c r="E27" s="5"/>
+      <c r="G27" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="H27" s="1"/>
+      <c r="H27" s="5"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
@@ -939,18 +958,18 @@
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
+      <c r="A34" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="2" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
+      <c r="A35" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -963,26 +982,26 @@
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
+      <c r="A37" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="2" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A39" s="1" t="s">
+      <c r="A39" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B39" s="1"/>
-      <c r="D39" s="1" t="s">
+      <c r="B39" s="5"/>
+      <c r="D39" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="E39" s="1"/>
-      <c r="G39" s="1" t="s">
+      <c r="E39" s="5"/>
+      <c r="G39" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="H39" s="1"/>
+      <c r="H39" s="5"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
@@ -1040,16 +1059,16 @@
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
+      <c r="A46" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B46" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D46" t="s">
+      <c r="D46" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E46" t="s">
+      <c r="E46" s="2" t="s">
         <v>19</v>
       </c>
       <c r="G46" t="s">
@@ -1061,6 +1080,13 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="G39:H39"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="G1:H1"/>
@@ -1068,13 +1094,6 @@
     <mergeCell ref="A13:B13"/>
     <mergeCell ref="D13:E13"/>
     <mergeCell ref="G13:H13"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="G39:H39"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Database Design.xlsx
+++ b/Database Design.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19226"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jianmingyong\Documents\GitHub\TheDialgaTeam\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34F2BB8A-3023-4578-A8BC-2B7B5352F017}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{567C7373-53AE-436C-90DF-78BB769DA4D2}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9096" xr2:uid="{FFA57F3B-4B8E-4E2A-878C-E42987234F71}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="39">
   <si>
     <t>DiscordApp</t>
   </si>
@@ -39,36 +39,21 @@
     <t>AppName</t>
   </si>
   <si>
-    <t>DiscordAppDetail</t>
-  </si>
-  <si>
     <t>ClientId</t>
   </si>
   <si>
     <t>ClientSecret</t>
   </si>
   <si>
-    <t>DiscordAppDetailId</t>
-  </si>
-  <si>
     <t>FK</t>
   </si>
   <si>
-    <t>DiscordBotDetail</t>
-  </si>
-  <si>
     <t>BotToken</t>
   </si>
   <si>
-    <t>DiscordBotDetailId</t>
-  </si>
-  <si>
     <t>AppDescription</t>
   </si>
   <si>
-    <t>Verified</t>
-  </si>
-  <si>
     <t>LastUpdateCheck</t>
   </si>
   <si>
@@ -154,12 +139,6 @@
   </si>
   <si>
     <t>Duration</t>
-  </si>
-  <si>
-    <t>ServerHoundId</t>
-  </si>
-  <si>
-    <t>FreeGameNotificationId</t>
   </si>
   <si>
     <t>LastChecked</t>
@@ -178,18 +157,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -204,17 +177,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -531,8 +503,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDA5944E-D60E-4225-AA9E-B34A789D881A}">
   <dimension ref="A1:K46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -548,26 +520,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="D1" s="5" t="s">
+      <c r="B1" s="2"/>
+      <c r="D1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="3"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>4</v>
-      </c>
-      <c r="E1" s="5"/>
-      <c r="G1" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="H1" s="5"/>
-      <c r="J1" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="K1" s="5"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>2</v>
@@ -578,143 +544,87 @@
       <c r="E2" t="s">
         <v>2</v>
       </c>
-      <c r="G2" t="s">
-        <v>1</v>
-      </c>
-      <c r="H2" t="s">
-        <v>2</v>
-      </c>
-      <c r="J2" t="s">
-        <v>1</v>
-      </c>
-      <c r="K2" t="s">
-        <v>2</v>
-      </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="1"/>
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
       <c r="D3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J3" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="B4" s="1"/>
       <c r="D4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" t="s">
         <v>6</v>
-      </c>
-      <c r="G4" t="s">
-        <v>13</v>
-      </c>
-      <c r="J4" t="s">
-        <v>16</v>
-      </c>
-      <c r="K4" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B5" s="1"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
+      <c r="A6" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="B6" s="1"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>8</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="B7" s="1"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" s="1"/>
       <c r="B8" s="1"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" s="2" t="s">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" t="s">
         <v>0</v>
       </c>
-      <c r="E9" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J9" t="s">
-        <v>0</v>
-      </c>
-      <c r="K9" t="s">
-        <v>20</v>
+      <c r="E9" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="3"/>
+      <c r="D13" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" s="5"/>
-      <c r="D13" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E13" s="5"/>
-      <c r="G13" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="H13" s="5"/>
-      <c r="J13" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="K13" s="5"/>
+      <c r="E13" s="3"/>
+      <c r="G13" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H13" s="3"/>
+      <c r="J13" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K13" s="3"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
@@ -744,139 +654,131 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D15" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="G15" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="J15" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D16" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E16" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G16" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="H16" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J16" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J17" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="K17" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>43</v>
-      </c>
-      <c r="B18" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B20" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D20" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E20" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="G20" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="H20" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="J20" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="K20" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A21" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>21</v>
+      <c r="A21" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A22" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>21</v>
+      <c r="A22" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A23" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>21</v>
+      <c r="A23" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A24" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>21</v>
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B25" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A27" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B27" s="5"/>
-      <c r="D27" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E27" s="5"/>
-      <c r="G27" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="H27" s="5"/>
+      <c r="A27" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B27" s="3"/>
+      <c r="D27" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E27" s="3"/>
+      <c r="G27" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H27" s="3"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
@@ -900,108 +802,100 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D29" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="G29" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D30" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="E30" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G30" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="H30" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>44</v>
-      </c>
-      <c r="B31" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B33" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D33" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="E33" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="G33" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="H33" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A34" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>21</v>
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A35" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>21</v>
+      <c r="A35" t="s">
+        <v>26</v>
+      </c>
+      <c r="B35" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B36" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A37" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>21</v>
+      <c r="A37" t="s">
+        <v>34</v>
+      </c>
+      <c r="B37" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A39" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B39" s="5"/>
-      <c r="D39" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="E39" s="5"/>
-      <c r="G39" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="H39" s="5"/>
+      <c r="A39" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B39" s="3"/>
+      <c r="D39" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E39" s="3"/>
+      <c r="G39" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H39" s="3"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
@@ -1025,61 +919,73 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
+        <v>30</v>
+      </c>
+      <c r="D41" t="s">
+        <v>33</v>
+      </c>
+      <c r="G41" t="s">
         <v>35</v>
-      </c>
-      <c r="D41" t="s">
-        <v>38</v>
-      </c>
-      <c r="G41" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D42" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="G42" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>27</v>
+      </c>
+      <c r="B43" t="s">
+        <v>6</v>
+      </c>
+      <c r="D43" t="s">
+        <v>21</v>
+      </c>
+      <c r="E43" t="s">
+        <v>6</v>
+      </c>
       <c r="G43" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="G44" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="H44" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A46" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>19</v>
+      <c r="A46" t="s">
+        <v>23</v>
+      </c>
+      <c r="B46" t="s">
+        <v>14</v>
+      </c>
+      <c r="D46" t="s">
+        <v>13</v>
+      </c>
+      <c r="E46" t="s">
+        <v>14</v>
       </c>
       <c r="G46" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="H46" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="13">
     <mergeCell ref="A27:B27"/>
     <mergeCell ref="D27:E27"/>
     <mergeCell ref="G27:H27"/>
@@ -1088,9 +994,8 @@
     <mergeCell ref="D39:E39"/>
     <mergeCell ref="G39:H39"/>
     <mergeCell ref="A1:B1"/>
+    <mergeCell ref="G1:H1"/>
     <mergeCell ref="D1:E1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="J1:K1"/>
     <mergeCell ref="A13:B13"/>
     <mergeCell ref="D13:E13"/>
     <mergeCell ref="G13:H13"/>

--- a/Database Design.xlsx
+++ b/Database Design.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jianmingyong\Documents\GitHub\TheDialgaTeam\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{567C7373-53AE-436C-90DF-78BB769DA4D2}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1C8BC46-2A24-424D-A4B8-53919BA6DBF1}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9096" xr2:uid="{FFA57F3B-4B8E-4E2A-878C-E42987234F71}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="39">
   <si>
     <t>DiscordApp</t>
   </si>
@@ -177,13 +177,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -501,10 +502,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDA5944E-D60E-4225-AA9E-B34A789D881A}">
-  <dimension ref="A1:K46"/>
+  <dimension ref="A1:K47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -520,22 +521,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
+      <c r="B1" s="4"/>
       <c r="D1" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E1" s="3"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="1" t="s">
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+    </row>
+    <row r="2" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D2" t="s">
@@ -547,17 +548,17 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>5</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="B3" s="1"/>
       <c r="D3" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1"/>
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
       <c r="D4" t="s">
         <v>11</v>
       </c>
@@ -567,176 +568,174 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="1"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="B6" s="1"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="1"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
+      <c r="B7" s="1"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="1"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B8" s="1"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="B9" s="1"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>10</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B10" t="s">
         <v>16</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D10" t="s">
         <v>0</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E10" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B11" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="3"/>
-      <c r="D13" s="3" t="s">
+      <c r="B14" s="3"/>
+      <c r="D14" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E13" s="3"/>
-      <c r="G13" s="3" t="s">
+      <c r="E14" s="3"/>
+      <c r="G14" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="H13" s="3"/>
-      <c r="J13" s="3" t="s">
+      <c r="H14" s="3"/>
+      <c r="J14" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="K13" s="3"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>1</v>
-      </c>
-      <c r="B14" t="s">
-        <v>2</v>
-      </c>
-      <c r="D14" t="s">
-        <v>1</v>
-      </c>
-      <c r="E14" t="s">
-        <v>2</v>
-      </c>
-      <c r="G14" t="s">
-        <v>1</v>
-      </c>
-      <c r="H14" t="s">
-        <v>2</v>
-      </c>
-      <c r="J14" t="s">
-        <v>1</v>
-      </c>
-      <c r="K14" t="s">
-        <v>2</v>
-      </c>
+      <c r="K14" s="3"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>17</v>
+        <v>1</v>
+      </c>
+      <c r="B15" t="s">
+        <v>2</v>
       </c>
       <c r="D15" t="s">
-        <v>20</v>
+        <v>1</v>
+      </c>
+      <c r="E15" t="s">
+        <v>2</v>
       </c>
       <c r="G15" t="s">
-        <v>12</v>
+        <v>1</v>
+      </c>
+      <c r="H15" t="s">
+        <v>2</v>
       </c>
       <c r="J15" t="s">
-        <v>29</v>
+        <v>1</v>
+      </c>
+      <c r="K15" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D16" t="s">
-        <v>21</v>
-      </c>
-      <c r="E16" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="G16" t="s">
-        <v>21</v>
-      </c>
-      <c r="H16" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="J16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17" t="s">
+        <v>6</v>
+      </c>
+      <c r="G17" t="s">
+        <v>21</v>
+      </c>
+      <c r="H17" t="s">
+        <v>6</v>
+      </c>
+      <c r="J17" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
         <v>11</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B18" t="s">
         <v>6</v>
       </c>
-      <c r="J17" t="s">
+      <c r="J18" t="s">
         <v>21</v>
       </c>
-      <c r="K17" t="s">
+      <c r="K18" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>0</v>
-      </c>
-      <c r="B20" t="s">
-        <v>15</v>
-      </c>
-      <c r="D20" t="s">
-        <v>13</v>
-      </c>
-      <c r="E20" t="s">
-        <v>15</v>
-      </c>
-      <c r="G20" t="s">
-        <v>13</v>
-      </c>
-      <c r="H20" t="s">
-        <v>15</v>
-      </c>
-      <c r="J20" t="s">
-        <v>13</v>
-      </c>
-      <c r="K20" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="B21" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="D21" t="s">
+        <v>13</v>
+      </c>
+      <c r="E21" t="s">
+        <v>15</v>
+      </c>
+      <c r="G21" t="s">
+        <v>13</v>
+      </c>
+      <c r="H21" t="s">
+        <v>15</v>
+      </c>
+      <c r="J21" t="s">
+        <v>13</v>
+      </c>
+      <c r="K21" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B22" t="s">
         <v>16</v>
@@ -744,7 +743,7 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B23" t="s">
         <v>16</v>
@@ -752,7 +751,7 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B24" t="s">
         <v>16</v>
@@ -760,108 +759,108 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
         <v>32</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B26" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A27" s="3" t="s">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A28" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B27" s="3"/>
-      <c r="D27" s="3" t="s">
+      <c r="B28" s="3"/>
+      <c r="D28" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E27" s="3"/>
-      <c r="G27" s="3" t="s">
+      <c r="E28" s="3"/>
+      <c r="G28" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="H27" s="3"/>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>1</v>
-      </c>
-      <c r="B28" t="s">
-        <v>2</v>
-      </c>
-      <c r="D28" t="s">
-        <v>1</v>
-      </c>
-      <c r="E28" t="s">
-        <v>2</v>
-      </c>
-      <c r="G28" t="s">
-        <v>1</v>
-      </c>
-      <c r="H28" t="s">
-        <v>2</v>
-      </c>
+      <c r="H28" s="3"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>24</v>
+        <v>1</v>
+      </c>
+      <c r="B29" t="s">
+        <v>2</v>
       </c>
       <c r="D29" t="s">
-        <v>20</v>
+        <v>1</v>
+      </c>
+      <c r="E29" t="s">
+        <v>2</v>
       </c>
       <c r="G29" t="s">
-        <v>12</v>
+        <v>1</v>
+      </c>
+      <c r="H29" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="D30" t="s">
+        <v>20</v>
+      </c>
+      <c r="G30" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
         <v>21</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B31" t="s">
         <v>6</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D31" t="s">
         <v>27</v>
       </c>
-      <c r="E30" t="s">
+      <c r="E31" t="s">
         <v>6</v>
       </c>
-      <c r="G30" t="s">
+      <c r="G31" t="s">
         <v>27</v>
       </c>
-      <c r="H30" t="s">
+      <c r="H31" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>13</v>
-      </c>
-      <c r="B33" t="s">
-        <v>15</v>
-      </c>
-      <c r="D33" t="s">
-        <v>23</v>
-      </c>
-      <c r="E33" t="s">
-        <v>15</v>
-      </c>
-      <c r="G33" t="s">
-        <v>23</v>
-      </c>
-      <c r="H33" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="B34" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="D34" t="s">
+        <v>23</v>
+      </c>
+      <c r="E34" t="s">
+        <v>15</v>
+      </c>
+      <c r="G34" t="s">
+        <v>23</v>
+      </c>
+      <c r="H34" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B35" t="s">
         <v>16</v>
@@ -869,136 +868,144 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B36" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
+        <v>31</v>
+      </c>
+      <c r="B37" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
         <v>34</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B38" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A39" s="3" t="s">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A40" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B39" s="3"/>
-      <c r="D39" s="3" t="s">
+      <c r="B40" s="3"/>
+      <c r="D40" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E39" s="3"/>
-      <c r="G39" s="3" t="s">
+      <c r="E40" s="3"/>
+      <c r="G40" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="H39" s="3"/>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>1</v>
-      </c>
-      <c r="B40" t="s">
-        <v>2</v>
-      </c>
-      <c r="D40" t="s">
-        <v>1</v>
-      </c>
-      <c r="E40" t="s">
-        <v>2</v>
-      </c>
-      <c r="G40" t="s">
-        <v>1</v>
-      </c>
-      <c r="H40" t="s">
-        <v>2</v>
-      </c>
+      <c r="H40" s="3"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>30</v>
+        <v>1</v>
+      </c>
+      <c r="B41" t="s">
+        <v>2</v>
       </c>
       <c r="D41" t="s">
-        <v>33</v>
+        <v>1</v>
+      </c>
+      <c r="E41" t="s">
+        <v>2</v>
       </c>
       <c r="G41" t="s">
-        <v>35</v>
+        <v>1</v>
+      </c>
+      <c r="H41" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D42" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G42" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
+        <v>20</v>
+      </c>
+      <c r="D43" t="s">
+        <v>38</v>
+      </c>
+      <c r="G43" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
         <v>27</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B44" t="s">
         <v>6</v>
       </c>
-      <c r="D43" t="s">
+      <c r="D44" t="s">
         <v>21</v>
       </c>
-      <c r="E43" t="s">
+      <c r="E44" t="s">
         <v>6</v>
       </c>
-      <c r="G43" t="s">
+      <c r="G44" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="G44" t="s">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G45" t="s">
         <v>27</v>
       </c>
-      <c r="H44" t="s">
+      <c r="H45" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
         <v>23</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B47" t="s">
         <v>14</v>
       </c>
-      <c r="D46" t="s">
+      <c r="D47" t="s">
         <v>13</v>
       </c>
-      <c r="E46" t="s">
+      <c r="E47" t="s">
         <v>14</v>
       </c>
-      <c r="G46" t="s">
+      <c r="G47" t="s">
         <v>23</v>
       </c>
-      <c r="H46" t="s">
+      <c r="H47" t="s">
         <v>15</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="G39:H39"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="D1:E1"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="G40:H40"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Database Design.xlsx
+++ b/Database Design.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20325"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jianmingyong\Documents\GitHub\TheDialgaTeam\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1C8BC46-2A24-424D-A4B8-53919BA6DBF1}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A9B6B33-C0C7-4593-8BAA-7EB394001EA3}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9096" xr2:uid="{FFA57F3B-4B8E-4E2A-878C-E42987234F71}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="37">
   <si>
     <t>DiscordApp</t>
   </si>
@@ -69,15 +69,6 @@
     <t>DiscordGuild</t>
   </si>
   <si>
-    <t>Model 1-1</t>
-  </si>
-  <si>
-    <t>Model *-1</t>
-  </si>
-  <si>
-    <t>Model 1-*</t>
-  </si>
-  <si>
     <t>GuildId</t>
   </si>
   <si>
@@ -142,6 +133,9 @@
   </si>
   <si>
     <t>LastChecked</t>
+  </si>
+  <si>
+    <t>Unique</t>
   </si>
 </sst>
 </file>
@@ -181,13 +175,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -502,10 +496,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDA5944E-D60E-4225-AA9E-B34A789D881A}">
-  <dimension ref="A1:K47"/>
+  <dimension ref="A1:K26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28:H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -521,16 +515,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="D1" s="3" t="s">
+      <c r="B1" s="3"/>
+      <c r="D1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="3"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
     </row>
     <row r="2" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
@@ -550,7 +544,9 @@
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="1"/>
+      <c r="B3" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="D3" t="s">
         <v>12</v>
       </c>
@@ -594,418 +590,258 @@
       <c r="B9" s="1"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" t="s">
+      <c r="A10" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="5"/>
+      <c r="D10" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D10" t="s">
-        <v>0</v>
-      </c>
-      <c r="E10" t="s">
+      <c r="E10" s="5"/>
+      <c r="G10" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H10" s="5"/>
+      <c r="J10" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="K10" s="5"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" t="s">
+        <v>1</v>
+      </c>
+      <c r="E11" t="s">
+        <v>2</v>
+      </c>
+      <c r="G11" t="s">
+        <v>1</v>
+      </c>
+      <c r="H11" t="s">
+        <v>2</v>
+      </c>
+      <c r="J11" t="s">
+        <v>1</v>
+      </c>
+      <c r="K11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G12" t="s">
+        <v>12</v>
+      </c>
+      <c r="J12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>16</v>
+      <c r="D13" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" t="s">
+        <v>6</v>
+      </c>
+      <c r="G13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H13" t="s">
+        <v>6</v>
+      </c>
+      <c r="J13" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="3"/>
-      <c r="D14" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E14" s="3"/>
-      <c r="G14" s="3" t="s">
+      <c r="A14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" t="s">
+        <v>6</v>
+      </c>
+      <c r="J14" t="s">
+        <v>18</v>
+      </c>
+      <c r="K14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" s="5"/>
+      <c r="D16" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="H14" s="3"/>
-      <c r="J14" s="3" t="s">
+      <c r="E16" s="5"/>
+      <c r="G16" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H16" s="5"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B17" t="s">
+        <v>2</v>
+      </c>
+      <c r="D17" t="s">
+        <v>1</v>
+      </c>
+      <c r="E17" t="s">
+        <v>2</v>
+      </c>
+      <c r="G17" t="s">
+        <v>1</v>
+      </c>
+      <c r="H17" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18" t="s">
+        <v>17</v>
+      </c>
+      <c r="G18" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19" t="s">
+        <v>6</v>
+      </c>
+      <c r="G19" t="s">
+        <v>24</v>
+      </c>
+      <c r="H19" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="K14" s="3"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>1</v>
-      </c>
-      <c r="B15" t="s">
-        <v>2</v>
-      </c>
-      <c r="D15" t="s">
-        <v>1</v>
-      </c>
-      <c r="E15" t="s">
-        <v>2</v>
-      </c>
-      <c r="G15" t="s">
-        <v>1</v>
-      </c>
-      <c r="H15" t="s">
-        <v>2</v>
-      </c>
-      <c r="J15" t="s">
-        <v>1</v>
-      </c>
-      <c r="K15" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+      <c r="B21" s="5"/>
+      <c r="D21" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E21" s="5"/>
+      <c r="G21" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H21" s="5"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>1</v>
+      </c>
+      <c r="B22" t="s">
+        <v>2</v>
+      </c>
+      <c r="D22" t="s">
+        <v>1</v>
+      </c>
+      <c r="E22" t="s">
+        <v>2</v>
+      </c>
+      <c r="G22" t="s">
+        <v>1</v>
+      </c>
+      <c r="H22" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>30</v>
+      </c>
+      <c r="G23" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
         <v>17</v>
       </c>
-      <c r="D16" t="s">
-        <v>20</v>
-      </c>
-      <c r="G16" t="s">
-        <v>12</v>
-      </c>
-      <c r="J16" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+      <c r="D24" t="s">
+        <v>35</v>
+      </c>
+      <c r="G24" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>6</v>
+      </c>
+      <c r="D25" t="s">
         <v>18</v>
       </c>
-      <c r="D17" t="s">
-        <v>21</v>
-      </c>
-      <c r="E17" t="s">
-        <v>6</v>
-      </c>
-      <c r="G17" t="s">
-        <v>21</v>
-      </c>
-      <c r="H17" t="s">
-        <v>6</v>
-      </c>
-      <c r="J17" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>11</v>
-      </c>
-      <c r="B18" t="s">
-        <v>6</v>
-      </c>
-      <c r="J18" t="s">
-        <v>21</v>
-      </c>
-      <c r="K18" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>0</v>
-      </c>
-      <c r="B21" t="s">
-        <v>15</v>
-      </c>
-      <c r="D21" t="s">
-        <v>13</v>
-      </c>
-      <c r="E21" t="s">
-        <v>15</v>
-      </c>
-      <c r="G21" t="s">
-        <v>13</v>
-      </c>
-      <c r="H21" t="s">
-        <v>15</v>
-      </c>
-      <c r="J21" t="s">
-        <v>13</v>
-      </c>
-      <c r="K21" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>19</v>
-      </c>
-      <c r="B22" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>22</v>
-      </c>
-      <c r="B23" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>28</v>
-      </c>
-      <c r="B24" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>23</v>
-      </c>
-      <c r="B25" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>32</v>
-      </c>
-      <c r="B26" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A28" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B28" s="3"/>
-      <c r="D28" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E28" s="3"/>
-      <c r="G28" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="H28" s="3"/>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>1</v>
-      </c>
-      <c r="B29" t="s">
-        <v>2</v>
-      </c>
-      <c r="D29" t="s">
-        <v>1</v>
-      </c>
-      <c r="E29" t="s">
-        <v>2</v>
-      </c>
-      <c r="G29" t="s">
-        <v>1</v>
-      </c>
-      <c r="H29" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
+      <c r="E25" t="s">
+        <v>6</v>
+      </c>
+      <c r="G25" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G26" t="s">
         <v>24</v>
       </c>
-      <c r="D30" t="s">
-        <v>20</v>
-      </c>
-      <c r="G30" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>21</v>
-      </c>
-      <c r="B31" t="s">
-        <v>6</v>
-      </c>
-      <c r="D31" t="s">
-        <v>27</v>
-      </c>
-      <c r="E31" t="s">
-        <v>6</v>
-      </c>
-      <c r="G31" t="s">
-        <v>27</v>
-      </c>
-      <c r="H31" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>13</v>
-      </c>
-      <c r="B34" t="s">
-        <v>15</v>
-      </c>
-      <c r="D34" t="s">
-        <v>23</v>
-      </c>
-      <c r="E34" t="s">
-        <v>15</v>
-      </c>
-      <c r="G34" t="s">
-        <v>23</v>
-      </c>
-      <c r="H34" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>25</v>
-      </c>
-      <c r="B35" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>26</v>
-      </c>
-      <c r="B36" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>31</v>
-      </c>
-      <c r="B37" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>34</v>
-      </c>
-      <c r="B38" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A40" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B40" s="3"/>
-      <c r="D40" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E40" s="3"/>
-      <c r="G40" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="H40" s="3"/>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>1</v>
-      </c>
-      <c r="B41" t="s">
-        <v>2</v>
-      </c>
-      <c r="D41" t="s">
-        <v>1</v>
-      </c>
-      <c r="E41" t="s">
-        <v>2</v>
-      </c>
-      <c r="G41" t="s">
-        <v>1</v>
-      </c>
-      <c r="H41" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>30</v>
-      </c>
-      <c r="D42" t="s">
-        <v>33</v>
-      </c>
-      <c r="G42" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
-        <v>20</v>
-      </c>
-      <c r="D43" t="s">
-        <v>38</v>
-      </c>
-      <c r="G43" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
-        <v>27</v>
-      </c>
-      <c r="B44" t="s">
-        <v>6</v>
-      </c>
-      <c r="D44" t="s">
-        <v>21</v>
-      </c>
-      <c r="E44" t="s">
-        <v>6</v>
-      </c>
-      <c r="G44" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="G45" t="s">
-        <v>27</v>
-      </c>
-      <c r="H45" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
-        <v>23</v>
-      </c>
-      <c r="B47" t="s">
-        <v>14</v>
-      </c>
-      <c r="D47" t="s">
-        <v>13</v>
-      </c>
-      <c r="E47" t="s">
-        <v>14</v>
-      </c>
-      <c r="G47" t="s">
-        <v>23</v>
-      </c>
-      <c r="H47" t="s">
-        <v>15</v>
+      <c r="H26" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="G21:H21"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="D1:E1"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="G10:H10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Database Design.xlsx
+++ b/Database Design.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jianmingyong\Documents\GitHub\TheDialgaTeam\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A9B6B33-C0C7-4593-8BAA-7EB394001EA3}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A8E3084-E47C-455B-ADBB-249DEA302080}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9096" xr2:uid="{FFA57F3B-4B8E-4E2A-878C-E42987234F71}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9096" activeTab="1" xr2:uid="{FFA57F3B-4B8E-4E2A-878C-E42987234F71}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Global Table" sheetId="1" r:id="rId1"/>
+    <sheet name="Vanity Link Module" sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="179017"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="51">
   <si>
     <t>DiscordApp</t>
   </si>
@@ -136,6 +137,48 @@
   </si>
   <si>
     <t>Unique</t>
+  </si>
+  <si>
+    <t>VanityLink</t>
+  </si>
+  <si>
+    <t>CheckDBans</t>
+  </si>
+  <si>
+    <t>VanityLinkModule</t>
+  </si>
+  <si>
+    <t>LastJoined</t>
+  </si>
+  <si>
+    <t>VanityLinkModuleId</t>
+  </si>
+  <si>
+    <t>VanityLinkUserJoinLog</t>
+  </si>
+  <si>
+    <t>VanityLinkIPJoinLog</t>
+  </si>
+  <si>
+    <t>IP</t>
+  </si>
+  <si>
+    <t>NewUserRateLimit</t>
+  </si>
+  <si>
+    <t>RejoinUserRateLimit</t>
+  </si>
+  <si>
+    <t>NewIPRateLimit</t>
+  </si>
+  <si>
+    <t>RejoinIPRateLimit</t>
+  </si>
+  <si>
+    <t>RejectInviteLinkUser</t>
+  </si>
+  <si>
+    <t>Password</t>
   </si>
 </sst>
 </file>
@@ -171,17 +214,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -498,8 +542,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDA5944E-D60E-4225-AA9E-B34A789D881A}">
   <dimension ref="A1:K26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28:H28"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -515,252 +559,387 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="1"/>
       <c r="D1" s="5" t="s">
         <v>10</v>
       </c>
       <c r="E1" s="5"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
     </row>
     <row r="2" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s">
-        <v>2</v>
-      </c>
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D3" t="s">
+      <c r="C3" s="1"/>
+      <c r="D3" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D4" t="s">
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E4" t="s">
-        <v>6</v>
-      </c>
+      <c r="E4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" s="1"/>
       <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B10" s="5"/>
+      <c r="C10" s="1"/>
       <c r="D10" s="5" t="s">
         <v>16</v>
       </c>
       <c r="E10" s="5"/>
+      <c r="F10" s="1"/>
       <c r="G10" s="5" t="s">
         <v>19</v>
       </c>
       <c r="H10" s="5"/>
+      <c r="I10" s="1"/>
       <c r="J10" s="5" t="s">
         <v>25</v>
       </c>
       <c r="K10" s="5"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B11" t="s">
-        <v>2</v>
-      </c>
-      <c r="D11" t="s">
-        <v>1</v>
-      </c>
-      <c r="E11" t="s">
-        <v>2</v>
-      </c>
-      <c r="G11" t="s">
-        <v>1</v>
-      </c>
-      <c r="H11" t="s">
-        <v>2</v>
-      </c>
-      <c r="J11" t="s">
-        <v>1</v>
-      </c>
-      <c r="K11" t="s">
+      <c r="A11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K11" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+      <c r="A12" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D12" t="s">
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G12" t="s">
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J12" t="s">
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="K12" s="1"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+      <c r="A13" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D13" t="s">
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E13" t="s">
-        <v>6</v>
-      </c>
-      <c r="G13" t="s">
+      <c r="E13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H13" t="s">
-        <v>6</v>
-      </c>
-      <c r="J13" t="s">
+      <c r="H13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1" t="s">
         <v>27</v>
       </c>
+      <c r="K13" s="1"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+      <c r="A14" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B14" t="s">
-        <v>6</v>
-      </c>
-      <c r="J14" t="s">
+      <c r="B14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K14" t="s">
-        <v>6</v>
-      </c>
+      <c r="K14" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>20</v>
       </c>
       <c r="B16" s="5"/>
+      <c r="C16" s="1"/>
       <c r="D16" s="5" t="s">
         <v>22</v>
       </c>
       <c r="E16" s="5"/>
+      <c r="F16" s="1"/>
       <c r="G16" s="5" t="s">
         <v>23</v>
       </c>
       <c r="H16" s="5"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>1</v>
-      </c>
-      <c r="B17" t="s">
-        <v>2</v>
-      </c>
-      <c r="D17" t="s">
-        <v>1</v>
-      </c>
-      <c r="E17" t="s">
-        <v>2</v>
-      </c>
-      <c r="G17" t="s">
-        <v>1</v>
-      </c>
-      <c r="H17" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D18" t="s">
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G18" t="s">
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B19" t="s">
-        <v>6</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="B19" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E19" t="s">
-        <v>6</v>
-      </c>
-      <c r="G19" t="s">
+      <c r="E19" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H19" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="5" t="s">
+      <c r="H19" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A21" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B21" s="5"/>
-      <c r="D21" s="5" t="s">
+      <c r="B21" s="4"/>
+      <c r="D21" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E21" s="5"/>
-      <c r="G21" s="5" t="s">
+      <c r="E21" s="4"/>
+      <c r="G21" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="H21" s="5"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H21" s="4"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>1</v>
       </c>
@@ -780,7 +959,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>27</v>
       </c>
@@ -791,7 +970,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>17</v>
       </c>
@@ -802,7 +981,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -819,7 +998,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="G26" t="s">
         <v>24</v>
       </c>
@@ -829,6 +1008,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="G10:H10"/>
     <mergeCell ref="A16:B16"/>
     <mergeCell ref="D16:E16"/>
     <mergeCell ref="G16:H16"/>
@@ -836,12 +1021,154 @@
     <mergeCell ref="A21:B21"/>
     <mergeCell ref="D21:E21"/>
     <mergeCell ref="G21:H21"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A05869EC-D573-4DB7-8251-3158F9B716A0}">
+  <dimension ref="A1:E18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="30.77734375" customWidth="1"/>
+    <col min="2" max="2" width="10.77734375" customWidth="1"/>
+    <col min="4" max="4" width="30.77734375" customWidth="1"/>
+    <col min="5" max="5" width="10.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="4"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B9"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14" s="4"/>
+      <c r="D14" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E14" s="4"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D15" t="s">
+        <v>1</v>
+      </c>
+      <c r="E15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>40</v>
+      </c>
+      <c r="D17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>41</v>
+      </c>
+      <c r="B18" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
     <mergeCell ref="A1:B1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="D14:E14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Database Design.xlsx
+++ b/Database Design.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jianmingyong\Documents\GitHub\TheDialgaTeam\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A8E3084-E47C-455B-ADBB-249DEA302080}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12AB6039-F6C2-4995-B21A-37C6D6529A3F}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9096" activeTab="1" xr2:uid="{FFA57F3B-4B8E-4E2A-878C-E42987234F71}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9096" xr2:uid="{FFA57F3B-4B8E-4E2A-878C-E42987234F71}"/>
   </bookViews>
   <sheets>
     <sheet name="Global Table" sheetId="1" r:id="rId1"/>
@@ -219,13 +219,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -542,8 +542,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDA5944E-D60E-4225-AA9E-B34A789D881A}">
   <dimension ref="A1:K26"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -559,18 +559,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
+      <c r="B1" s="4"/>
       <c r="C1" s="1"/>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="5"/>
+      <c r="E1" s="4"/>
       <c r="F1" s="1"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
@@ -708,25 +708,25 @@
       <c r="K9" s="1"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="5"/>
+      <c r="B10" s="4"/>
       <c r="C10" s="1"/>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E10" s="5"/>
+      <c r="E10" s="4"/>
       <c r="F10" s="1"/>
-      <c r="G10" s="5" t="s">
+      <c r="G10" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="H10" s="5"/>
+      <c r="H10" s="4"/>
       <c r="I10" s="1"/>
-      <c r="J10" s="5" t="s">
+      <c r="J10" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="K10" s="5"/>
+      <c r="K10" s="4"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
@@ -838,20 +838,20 @@
       <c r="K15" s="1"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="5"/>
+      <c r="B16" s="4"/>
       <c r="C16" s="1"/>
-      <c r="D16" s="5" t="s">
+      <c r="D16" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E16" s="5"/>
+      <c r="E16" s="4"/>
       <c r="F16" s="1"/>
-      <c r="G16" s="5" t="s">
+      <c r="G16" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="H16" s="5"/>
+      <c r="H16" s="4"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
@@ -926,18 +926,18 @@
       <c r="K19" s="1"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A21" s="4" t="s">
+      <c r="A21" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B21" s="4"/>
-      <c r="D21" s="4" t="s">
+      <c r="B21" s="6"/>
+      <c r="D21" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="E21" s="4"/>
-      <c r="G21" s="4" t="s">
+      <c r="E21" s="6"/>
+      <c r="G21" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="H21" s="4"/>
+      <c r="H21" s="6"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
@@ -1008,12 +1008,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="G10:H10"/>
     <mergeCell ref="A16:B16"/>
     <mergeCell ref="D16:E16"/>
     <mergeCell ref="G16:H16"/>
@@ -1021,6 +1015,12 @@
     <mergeCell ref="A21:B21"/>
     <mergeCell ref="D21:E21"/>
     <mergeCell ref="G21:H21"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="G10:H10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1030,8 +1030,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A05869EC-D573-4DB7-8251-3158F9B716A0}">
   <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1043,10 +1043,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="4"/>
+      <c r="B1" s="6"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
@@ -1111,14 +1111,14 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B14" s="4"/>
-      <c r="D14" s="4" t="s">
+      <c r="B14" s="6"/>
+      <c r="D14" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="E14" s="4"/>
+      <c r="E14" s="6"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">

--- a/Database Design.xlsx
+++ b/Database Design.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jianmingyong\Documents\GitHub\TheDialgaTeam\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12AB6039-F6C2-4995-B21A-37C6D6529A3F}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F8B6DA7-027B-46A5-A8BA-7C71108CF684}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9096" xr2:uid="{FFA57F3B-4B8E-4E2A-878C-E42987234F71}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="52">
   <si>
     <t>DiscordApp</t>
   </si>
@@ -76,30 +76,18 @@
     <t>Prefix</t>
   </si>
   <si>
-    <t>DiscordGuildModeratorRole</t>
-  </si>
-  <si>
     <t>RoleId</t>
   </si>
   <si>
     <t>DiscordGuildId</t>
   </si>
   <si>
-    <t>DiscordGuildModeratorUser</t>
-  </si>
-  <si>
     <t>DiscordChannel</t>
   </si>
   <si>
     <t>ChannelId</t>
   </si>
   <si>
-    <t>DiscordChannelModeratorRole</t>
-  </si>
-  <si>
-    <t>DiscordChannelModeratorUser</t>
-  </si>
-  <si>
     <t>DiscordChannelId</t>
   </si>
   <si>
@@ -179,6 +167,21 @@
   </si>
   <si>
     <t>Password</t>
+  </si>
+  <si>
+    <t>DeleteCommandAfterUse</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>DiscordGuildModerator</t>
+  </si>
+  <si>
+    <t>DiscordChannelModerator</t>
   </si>
 </sst>
 </file>
@@ -214,18 +217,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -540,10 +544,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDA5944E-D60E-4225-AA9E-B34A789D881A}">
-  <dimension ref="A1:K26"/>
+  <dimension ref="A1:K28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="G17" sqref="G17:H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -559,18 +563,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
+      <c r="B1" s="5"/>
       <c r="C1" s="1"/>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="4"/>
+      <c r="E1" s="5"/>
       <c r="F1" s="1"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
@@ -601,7 +605,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1" t="s">
@@ -708,25 +712,21 @@
       <c r="K9" s="1"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="4"/>
+      <c r="B10" s="5"/>
       <c r="C10" s="1"/>
-      <c r="D10" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E10" s="4"/>
+      <c r="D10" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E10" s="5"/>
       <c r="F10" s="1"/>
-      <c r="G10" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H10" s="4"/>
+      <c r="G10" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H10" s="5"/>
       <c r="I10" s="1"/>
-      <c r="J10" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="K10" s="4"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
@@ -750,12 +750,6 @@
         <v>2</v>
       </c>
       <c r="I11" s="1"/>
-      <c r="J11" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>2</v>
-      </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
@@ -763,20 +757,15 @@
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
-      <c r="D12" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E12" s="1"/>
+      <c r="D12" t="s">
+        <v>48</v>
+      </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
-      <c r="J12" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="K12" s="1"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
@@ -785,116 +774,99 @@
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>6</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="K13" s="1"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
+      <c r="F14" s="1"/>
+      <c r="G14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I14" s="1"/>
+    </row>
+    <row r="15" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B15" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K14" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B16" s="4"/>
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
       <c r="C16" s="1"/>
-      <c r="D16" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E16" s="4"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
       <c r="F16" s="1"/>
-      <c r="G16" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H16" s="4"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>2</v>
-      </c>
+      <c r="A17" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="5"/>
       <c r="C17" s="1"/>
-      <c r="D17" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>2</v>
-      </c>
+      <c r="D17" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E17" s="5"/>
       <c r="F17" s="1"/>
-      <c r="G17" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>2</v>
-      </c>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B18" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E18" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="F18" s="1"/>
-      <c r="G18" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
@@ -902,125 +874,151 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>6</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>6</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="E19" s="1"/>
       <c r="F19" s="1"/>
-      <c r="G19" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A21" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B21" s="6"/>
-      <c r="D21" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E21" s="6"/>
-      <c r="G21" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="H21" s="6"/>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>1</v>
-      </c>
-      <c r="B22" t="s">
-        <v>2</v>
-      </c>
-      <c r="D22" t="s">
-        <v>1</v>
-      </c>
-      <c r="E22" t="s">
-        <v>2</v>
-      </c>
-      <c r="G22" t="s">
-        <v>1</v>
-      </c>
-      <c r="H22" t="s">
-        <v>2</v>
-      </c>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" s="1"/>
+      <c r="D20" t="s">
+        <v>49</v>
+      </c>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+    </row>
+    <row r="21" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
+      <c r="A23" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" s="6"/>
+      <c r="D23" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E23" s="6"/>
+      <c r="G23" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D23" t="s">
-        <v>30</v>
-      </c>
-      <c r="G23" t="s">
-        <v>32</v>
-      </c>
+      <c r="H23" s="6"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>17</v>
+        <v>1</v>
+      </c>
+      <c r="B24" t="s">
+        <v>2</v>
       </c>
       <c r="D24" t="s">
-        <v>35</v>
+        <v>1</v>
+      </c>
+      <c r="E24" t="s">
+        <v>2</v>
       </c>
       <c r="G24" t="s">
-        <v>33</v>
+        <v>1</v>
+      </c>
+      <c r="H24" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="D25" t="s">
+        <v>26</v>
+      </c>
+      <c r="G25" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>16</v>
+      </c>
+      <c r="D26" t="s">
+        <v>31</v>
+      </c>
+      <c r="G26" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>20</v>
+      </c>
+      <c r="B27" t="s">
         <v>6</v>
       </c>
-      <c r="D25" t="s">
-        <v>18</v>
-      </c>
-      <c r="E25" t="s">
+      <c r="D27" t="s">
+        <v>17</v>
+      </c>
+      <c r="E27" t="s">
         <v>6</v>
       </c>
-      <c r="G25" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="G26" t="s">
-        <v>24</v>
-      </c>
-      <c r="H26" t="s">
+      <c r="G27" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="G28" t="s">
+        <v>20</v>
+      </c>
+      <c r="H28" t="s">
         <v>6</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="G21:H21"/>
+  <mergeCells count="12">
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="D10:E10"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="G17:H17"/>
     <mergeCell ref="G10:H10"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="G23:H23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1044,7 +1042,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B1" s="6"/>
     </row>
@@ -1058,53 +1056,53 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B9"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>6</v>
@@ -1112,11 +1110,11 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B14" s="6"/>
       <c r="D14" s="6" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E14" s="6"/>
     </row>
@@ -1139,26 +1137,26 @@
         <v>12</v>
       </c>
       <c r="D16" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D17" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B18" t="s">
         <v>6</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>6</v>

--- a/Database Design.xlsx
+++ b/Database Design.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jianmingyong\Documents\GitHub\TheDialgaTeam\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F8B6DA7-027B-46A5-A8BA-7C71108CF684}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F0AD950-0318-4254-9C32-9793940BA53F}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9096" xr2:uid="{FFA57F3B-4B8E-4E2A-878C-E42987234F71}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="53">
   <si>
     <t>DiscordApp</t>
   </si>
@@ -182,6 +182,9 @@
   </si>
   <si>
     <t>DiscordChannelModerator</t>
+  </si>
+  <si>
+    <t>DiscordAppOwnerId</t>
   </si>
 </sst>
 </file>
@@ -226,10 +229,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -547,7 +550,7 @@
   <dimension ref="A1:K28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17:H20"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -573,22 +576,22 @@
       </c>
       <c r="E1" s="5"/>
       <c r="F1" s="1"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
     </row>
     <row r="2" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>52</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>2</v>
@@ -925,18 +928,18 @@
       <c r="K21" s="4"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A23" s="6" t="s">
+      <c r="A23" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B23" s="6"/>
-      <c r="D23" s="6" t="s">
+      <c r="B23" s="7"/>
+      <c r="D23" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="E23" s="6"/>
-      <c r="G23" s="6" t="s">
+      <c r="E23" s="7"/>
+      <c r="G23" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="H23" s="6"/>
+      <c r="H23" s="7"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
@@ -1007,11 +1010,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="D10:E10"/>
     <mergeCell ref="A17:B17"/>
     <mergeCell ref="D17:E17"/>
     <mergeCell ref="G17:H17"/>
@@ -1019,6 +1017,11 @@
     <mergeCell ref="A23:B23"/>
     <mergeCell ref="D23:E23"/>
     <mergeCell ref="G23:H23"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="D10:E10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1041,10 +1044,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="6"/>
+      <c r="B1" s="7"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
@@ -1109,14 +1112,14 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="B14" s="6"/>
-      <c r="D14" s="6" t="s">
+      <c r="B14" s="7"/>
+      <c r="D14" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="E14" s="6"/>
+      <c r="E14" s="7"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
